--- a/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Desktop\VC_MIPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Documents\GitHub\PAT_Editor_Simplified\PAT_Editor\Samples\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C484D7B-5F68-4031-B13D-EBB608927E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264736AE-066A-4863-9169-A72B4320DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24672" yWindow="2196" windowWidth="17220" windowHeight="8892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="2460" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
   <si>
     <t>Mipi Mode</t>
   </si>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>WA0400</t>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -706,7 +710,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,7 +983,7 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,8 +999,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
@@ -1026,7 +1033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -1041,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>41</v>
@@ -1056,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>40</v>
@@ -1071,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
@@ -1084,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1100,8 +1107,11 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>35</v>
@@ -1116,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
@@ -1129,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
@@ -1142,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1157,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
@@ -1170,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1185,6 +1195,9 @@
       </c>
       <c r="E14" t="s">
         <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAC93B5-E23A-4472-B94A-D359CC88344E}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>

--- a/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Documents\GitHub\PAT_Editor_Simplified\PAT_Editor\Samples\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264736AE-066A-4863-9169-A72B4320DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18994E1B-484F-416D-A61A-147AE05875CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2460" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="100">
   <si>
     <t>Mipi Mode</t>
   </si>
@@ -404,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -970,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1004,10 +1007,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1021,8 +1024,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1037,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1052,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1064,8 +1067,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1079,8 +1082,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1112,8 +1115,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1127,8 +1130,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1140,8 +1143,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1153,8 +1156,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1168,8 +1171,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1322,9 @@
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1327,6 +1332,9 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,14 +1413,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>64</v>
       </c>
@@ -1433,10 +1441,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" t="s">
         <v>69</v>
       </c>
@@ -1454,10 +1462,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" t="s">
         <v>71</v>
       </c>
@@ -1475,10 +1483,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" t="s">
         <v>74</v>
       </c>
@@ -1499,10 +1507,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>76</v>
       </c>
@@ -1523,10 +1531,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" t="s">
         <v>79</v>
       </c>
@@ -1544,10 +1552,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" t="s">
         <v>80</v>
       </c>
@@ -1565,10 +1573,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" t="s">
         <v>81</v>
       </c>
@@ -1589,10 +1597,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -1613,14 +1621,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -1638,10 +1646,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" t="s">
         <v>86</v>
       </c>
@@ -1659,10 +1667,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" t="s">
         <v>87</v>
       </c>
@@ -1680,10 +1688,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
         <v>88</v>
       </c>
@@ -1704,10 +1712,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" t="s">
         <v>91</v>
       </c>
@@ -1728,10 +1736,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" t="s">
         <v>93</v>
       </c>
@@ -1749,10 +1757,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" t="s">
         <v>95</v>
       </c>
@@ -1770,10 +1778,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" t="s">
         <v>96</v>
       </c>
@@ -1791,10 +1799,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" t="s">
         <v>97</v>
       </c>
@@ -1812,10 +1820,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" t="s">
         <v>98</v>
       </c>

--- a/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Documents\GitHub\PAT_Editor_Simplified\PAT_Editor\Samples\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18994E1B-484F-416D-A61A-147AE05875CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51083A5-9D2A-4CFD-A358-7B6941C0614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24240" yWindow="792" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="2" r:id="rId1"/>
@@ -1228,6 +1228,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11010" windowHeight="6630" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19875" windowHeight="12090" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
   <si>
     <t>TS1</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>W21C40;R21C40;ZW2003F;MW200FFFE;EW212DFFEE;ER202DFF;LEW212D2BFFEE;LER202D2BFF;UEW2AA_2D2B22_FFEEDDCCBB;UER2AA_2D2B22_FFEEDDCCBB;</t>
   </si>
   <si>
     <t>Test1</t>
@@ -317,14 +323,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,33 +796,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,97 +835,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,10 +930,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,10 +942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1530,10 +1529,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1565,15 +1564,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1581,195 +1577,213 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1793,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1805,12 +1819,12 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1827,7 +1841,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1844,7 +1858,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1861,7 +1875,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1878,7 +1892,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -1889,10 +1903,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1900,10 +1914,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -1940,10 +1954,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1952,30 +1966,30 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1983,22 +1997,22 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2007,16 +2021,16 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4">
         <v>38</v>
@@ -2028,19 +2042,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2049,13 +2063,13 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2073,22 +2087,22 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2097,16 +2111,16 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8">
         <v>38</v>
@@ -2118,19 +2132,19 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2139,13 +2153,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2163,13 +2177,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2178,12 +2192,12 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -2191,13 +2205,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2212,13 +2226,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2233,13 +2247,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2254,22 +2268,22 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2278,13 +2292,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -2293,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2302,19 +2316,19 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2323,13 +2337,13 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2344,19 +2358,19 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2365,13 +2379,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2386,13 +2400,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>4</v>
